--- a/r5-ELGA-MOPED-main/ValueSet-ursache-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-ursache-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
